--- a/기획/테이블/몬스터 데이터 스키마.xlsx
+++ b/기획/테이블/몬스터 데이터 스키마.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\addmin\Desktop\Unreal\UnrealProject\기획\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="44" documentId="13_ncr:1_{558ADE80-6D62-47AF-AE9E-AA4FC85BD005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F6118862-F055-46A4-951C-DE653215F578}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{865B7A8D-6257-4A58-AAAF-9B4103CF690C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5325" yWindow="2460" windowWidth="20220" windowHeight="11295" xr2:uid="{9BAAB626-05E5-45CE-B05E-F4E89D1CB9CA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>변수명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -84,7 +84,7 @@
     <t>몬스터의 이동속도</t>
   </si>
   <si>
-    <t>isActiveFight</t>
+    <t>isFight</t>
   </si>
   <si>
     <t>몬스터가 적대 상태인지 아닌지의 여부</t>
@@ -93,28 +93,10 @@
     <t>bool</t>
   </si>
   <si>
-    <t>isPassiveFight</t>
-  </si>
-  <si>
-    <t>몬스터가 수동 적대 상태인지 아닌지의 여부</t>
-  </si>
-  <si>
-    <t>isActiveEscape</t>
+    <t>isEscape</t>
   </si>
   <si>
     <t>몬스터가 도주 상태인지 아닌지의 여부</t>
-  </si>
-  <si>
-    <t>isPassiveEscape</t>
-  </si>
-  <si>
-    <t>몬스터가 수동 도주 상태인지 아닌지의 여부</t>
-  </si>
-  <si>
-    <t>isSatisfied</t>
-  </si>
-  <si>
-    <t>몬스터가 몬스터 생성기 조건에 만족하는지에 대한 여부</t>
   </si>
 </sst>
 </file>
@@ -155,7 +137,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -296,12 +278,14 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -312,9 +296,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -325,9 +307,7 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -337,66 +317,25 @@
       </left>
       <right style="thin">
         <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
       <right style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
@@ -408,14 +347,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1">
@@ -455,15 +391,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -780,10 +707,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38E03F59-26A1-49A0-A0C6-826B8FA10F46}">
-  <dimension ref="B1:D12"/>
+  <dimension ref="B1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -796,123 +723,90 @@
   <sheetData>
     <row r="1" spans="2:4" ht="17.25" thickBot="1"/>
     <row r="2" spans="2:4" ht="17.25" thickBot="1">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="2:4">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="2:4">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:4">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="2:4">
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="2:4">
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="2:4">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="12" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="2:4">
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4">
-      <c r="B10" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4">
-      <c r="B11" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4">
-      <c r="B12" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="15" t="s">
+      <c r="D9" s="14" t="s">
         <v>16</v>
       </c>
     </row>

--- a/기획/테이블/몬스터 데이터 스키마.xlsx
+++ b/기획/테이블/몬스터 데이터 스키마.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27904"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\addmin\Desktop\Unreal\UnrealProject\기획\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{865B7A8D-6257-4A58-AAAF-9B4103CF690C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38089151-D944-4E5A-9735-9D846FE7D047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5325" yWindow="2460" windowWidth="20220" windowHeight="11295" xr2:uid="{9BAAB626-05E5-45CE-B05E-F4E89D1CB9CA}"/>
+    <workbookView xWindow="450" yWindow="3585" windowWidth="20220" windowHeight="11295" xr2:uid="{9BAAB626-05E5-45CE-B05E-F4E89D1CB9CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>변수명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -84,26 +82,27 @@
     <t>몬스터의 이동속도</t>
   </si>
   <si>
-    <t>isFight</t>
-  </si>
-  <si>
-    <t>몬스터가 적대 상태인지 아닌지의 여부</t>
-  </si>
-  <si>
-    <t>bool</t>
-  </si>
-  <si>
-    <t>isEscape</t>
-  </si>
-  <si>
-    <t>몬스터가 도주 상태인지 아닌지의 여부</t>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터의 플레이어에 대한 대응 방식을 정의한 ENUM형 데이터
+0 : 적대 몬스터
+1 : 수동 적대 몬스터
+2 : 도주 몬스터
+3 : 수동 도주 몬스터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Integer(Enum)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -381,9 +380,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -392,6 +388,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -411,7 +410,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -710,19 +709,19 @@
   <dimension ref="B1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="15.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="80.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.75" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="17.25" thickBot="1"/>
-    <row r="2" spans="2:4" ht="17.25" thickBot="1">
+    <row r="1" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -733,7 +732,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:4">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" s="6" t="s">
         <v>3</v>
       </c>
@@ -744,7 +743,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:4">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4" s="8" t="s">
         <v>6</v>
       </c>
@@ -755,7 +754,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:4">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B5" s="8" t="s">
         <v>8</v>
       </c>
@@ -766,7 +765,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:4">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B6" s="8" t="s">
         <v>10</v>
       </c>
@@ -777,7 +776,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:4">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B7" s="8" t="s">
         <v>12</v>
       </c>
@@ -788,27 +787,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:4">
+    <row r="8" spans="2:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="2:4">
-      <c r="B9" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>16</v>
-      </c>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="10"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
